--- a/biology/Zoologie/Crossodactylodes/Crossodactylodes.xlsx
+++ b/biology/Zoologie/Crossodactylodes/Crossodactylodes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crossodactylodes est un genre d'amphibiens de la famille des Leptodactylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crossodactylodes est un genre d'amphibiens de la famille des Leptodactylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les cinq espèces de ce genre sont endémiques de la forêt atlantique au Brésil[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cinq espèces de ce genre sont endémiques de la forêt atlantique au Brésil.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (10 juin 2017)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (10 juin 2017) :
 Crossodactylodes bokermanni Peixoto, 1983
 Crossodactylodes itambe Barata, Santos, Leite &amp; Garcia, 2013
 Crossodactylodes izecksohni Peixoto, 1983
@@ -577,9 +593,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été déplacé de la famille des Cycloramphidae à celle des Leptodactylidae par Fouquet, Blotto, Maronna, Verdade, Juncá, de Sá &amp; Rodrigues en 2013[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été déplacé de la famille des Cycloramphidae à celle des Leptodactylidae par Fouquet, Blotto, Maronna, Verdade, Juncá, de Sá &amp; Rodrigues en 2013.
 </t>
         </is>
       </c>
@@ -608,7 +626,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cochran, 1938 : Diagnoses of new Frogs from Brazil. Proceedings of the Biological Society of Washington, vol. 51, p. 41-42 (texte intégral).</t>
         </is>
